--- a/testdata/FMS.xlsx
+++ b/testdata/FMS.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="7575" windowWidth="15600" xWindow="240" yWindow="570"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="15600" windowHeight="7575"/>
   </bookViews>
   <sheets>
-    <sheet name="FMS_Home" r:id="rId1" sheetId="12"/>
-    <sheet name="FMS_CardNumber" r:id="rId2" sheetId="9"/>
-    <sheet name="FMS_VTSale" r:id="rId3" sheetId="11"/>
+    <sheet name="FMS_Home" sheetId="12" r:id="rId1"/>
+    <sheet name="FMS_CardNumber" sheetId="9" r:id="rId2"/>
+    <sheet name="FMS_VTSale" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
   <si>
     <t>Row Number</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>xpath:://div[@id='header-mid']/button[2]</t>
+  </si>
+  <si>
+    <t>xpath:://div[@id='header-mid']/ul/li[*]/a[text()='271105091008']</t>
   </si>
   <si>
     <t>lnkFMS</t>
@@ -430,28 +433,22 @@
     <t>id::entity2</t>
   </si>
   <si>
-    <t>xpath:://span[text()='']/../../td[5]</t>
-  </si>
-  <si>
-    <t>xpath:://span[text()='CS88841851270676857']/../../td[5]</t>
-  </si>
-  <si>
-    <t>xpath:://span[text()='CS82834181789579241']/../../td[5]</t>
-  </si>
-  <si>
-    <t>xpath:://span[text()='CS42804562869738243']/../../td[5]</t>
-  </si>
-  <si>
-    <t>xpath:://span[text()='CS60042226561705351']/../../td[5]</t>
-  </si>
-  <si>
-    <t>xpath:://span[text()='CS83358951897601732']/../../td[5]</t>
-  </si>
-  <si>
-    <t>xpath:://span[text()='CS63575163781886990']/../../td[5]</t>
-  </si>
-  <si>
-    <t>xpath:://span[text()='CS91307620059032097']/../../td[5]</t>
+    <t>xpath:://span[text()='CS23854096925558732']/../../td[5]/span</t>
+  </si>
+  <si>
+    <t>xpath:://span[text()='CS86588085466139711']/../../td[5]/span</t>
+  </si>
+  <si>
+    <t>xpath:://span[text()='CS54844890116833067']/../../td[5]/span</t>
+  </si>
+  <si>
+    <t>xpath:://span[text()='CS84401875758937616']/../../td[5]/span</t>
+  </si>
+  <si>
+    <t>xpath:://span[text()='CS12955610045224142']/../../td[5]/span</t>
+  </si>
+  <si>
+    <t>xpath:://span[text()='CS81344386415179883']/../../td[5]/span</t>
   </si>
 </sst>
 </file>
@@ -558,29 +555,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -594,10 +591,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -755,7 +752,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -764,13 +761,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -780,7 +777,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -789,7 +786,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -798,7 +795,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -808,12 +805,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -844,7 +841,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -863,7 +860,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -875,11 +872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +888,7 @@
     <col min="5" max="5" customWidth="true" width="59.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
     <col min="7" max="9" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="52.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="56.140625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -900,67 +897,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1061,7 +1058,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1118,7 +1115,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,17 +1223,17 @@
       <c r="B38" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,82 +1261,82 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1348,7 +1345,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1366,7 +1363,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1384,10 +1381,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1417,7 +1414,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1446,7 +1443,7 @@
         <v>text::549974******0057</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1487,7 +1484,7 @@
         <v>text::549974******0057</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1516,7 +1513,7 @@
         <v>text::549974******0057</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1544,17 +1541,17 @@
       <c r="A38" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,46 +1600,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>4</v>
@@ -1651,112 +1648,112 @@
         <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK1" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>5</v>
@@ -1765,67 +1762,67 @@
         <v>7</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -1965,7 +1962,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>1</v>
@@ -1994,22 +1991,22 @@
         <v>1</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>1</v>
@@ -2028,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -2238,7 +2235,7 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
@@ -2257,7 +2254,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="AH13" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -3060,7 +3057,7 @@
       <c r="E38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>